--- a/plan_test.xlsx
+++ b/plan_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12180"/>
+    <workbookView windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
     <t>08.01.03.460-2</t>
   </si>
   <si>
-    <t>LIVRO BEAUVOIR PRESENTE</t>
+    <t>LIVRO BEAUVOIR PRESENTE ITEM1</t>
   </si>
   <si>
     <t>08.01.03.462-8</t>
@@ -993,19 +993,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,8 +1014,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,38 +1082,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1076,23 +1090,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,10 +1106,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1129,30 +1129,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,7 +1160,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,7 +1190,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,163 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,24 +1369,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1409,27 +1384,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1459,6 +1417,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1473,153 +1455,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1627,11 +1620,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1955,11 +1948,15 @@
   <sheetPr/>
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A136" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138:F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="49.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" t="s">
@@ -2401,7 +2398,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" ht="15.75" spans="1:2">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -2641,7 +2638,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" ht="15.75" spans="1:2">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
@@ -3017,7 +3014,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" ht="15.75" spans="1:2">
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -3113,7 +3110,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" ht="15.75" spans="1:2">
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>

--- a/plan_test.xlsx
+++ b/plan_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12450"/>
+    <workbookView windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="328">
   <si>
     <t>CODIGO</t>
   </si>
@@ -986,6 +986,18 @@
   </si>
   <si>
     <t>CALCA FEM CINZA COZINHEIRA GG</t>
+  </si>
+  <si>
+    <t>08.08.09.033-2</t>
+  </si>
+  <si>
+    <t>SUNGÃO ADULTO PRETO M</t>
+  </si>
+  <si>
+    <t>08.08.09.034-0</t>
+  </si>
+  <si>
+    <t>SUNGÃO ADULTO PRETO G</t>
   </si>
 </sst>
 </file>
@@ -1008,22 +1020,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,7 +1056,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,13 +1073,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,7 +1103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,8 +1125,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,7 +1142,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,7 +1157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,7 +1172,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1292,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,157 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,6 +1381,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1380,24 +1401,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,6 +1444,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1458,11 +1472,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1471,7 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1489,94 +1501,106 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1585,34 +1609,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1946,10 +1958,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138:F138"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2398,7 +2410,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" ht="15.75" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" ht="15.75" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>166</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" ht="15.75" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -3110,7 +3122,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" ht="15.75" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -3276,6 +3288,22 @@
       </c>
       <c r="B165" s="2" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>324</v>
+      </c>
+      <c r="B166" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
